--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value530.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value530.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9985596642422863</v>
+        <v>1.297769546508789</v>
       </c>
       <c r="B1">
-        <v>1.417084253564276</v>
+        <v>2.280836343765259</v>
       </c>
       <c r="C1">
-        <v>1.606734252395494</v>
+        <v>2.882692098617554</v>
       </c>
       <c r="D1">
-        <v>1.764628428019906</v>
+        <v>3.319928884506226</v>
       </c>
       <c r="E1">
-        <v>2.186910998870225</v>
+        <v>1.815756320953369</v>
       </c>
     </row>
   </sheetData>
